--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Winsap_CS/20.18.00/report-checklist.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Winsap_CS/20.18.00/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engit.sharepoint.com/sites/FSE2.0Anatomia/Documenti condivisi/FSE 2.0 Anatomia/CS_SESSIONE_20250317/Winsap_CS/20.18.00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{793048FF-51A5-4816-AEC5-7F1B97153AA6}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67EED1A-0A0D-43BB-8D01-6850777776D3}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="475">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -3897,10 +3897,10 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="F150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="N150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H181" sqref="H181"/>
+      <selection pane="bottomRight" activeCell="A155" sqref="A155:XFD155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9634,7 +9634,9 @@
       <c r="G155" s="33"/>
       <c r="H155" s="33"/>
       <c r="I155" s="39"/>
-      <c r="J155" s="29"/>
+      <c r="J155" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="K155" s="29"/>
       <c r="L155" s="29"/>
       <c r="M155" s="29" t="s">
@@ -17576,6 +17578,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1e0ec522-3181-4f7c-b363-2ace71f6fee9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="228e3216-9b37-47f7-9d85-6e6726edc181">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009A6B8B41AB45FE4E8B23889C5F604192" ma:contentTypeVersion="11" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="c6632d705a2655bc4ef003303aa3e89d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="228e3216-9b37-47f7-9d85-6e6726edc181" xmlns:ns3="1e0ec522-3181-4f7c-b363-2ace71f6fee9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bc3f6e4344a62cf01cb5a4907fa5259c" ns2:_="" ns3:_="">
     <xsd:import namespace="228e3216-9b37-47f7-9d85-6e6726edc181"/>
@@ -17770,27 +17792,34 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="1e0ec522-3181-4f7c-b363-2ace71f6fee9"/>
+    <ds:schemaRef ds:uri="228e3216-9b37-47f7-9d85-6e6726edc181"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1e0ec522-3181-4f7c-b363-2ace71f6fee9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="228e3216-9b37-47f7-9d85-6e6726edc181">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDAFC9B-199E-4C7C-A64D-490A84C3B726}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17807,31 +17836,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e0ec522-3181-4f7c-b363-2ace71f6fee9"/>
-    <ds:schemaRef ds:uri="228e3216-9b37-47f7-9d85-6e6726edc181"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Winsap_CS/20.18.00/report-checklist.xlsx
+++ b/GATEWAY/S1#111ENGINNERING/Engineering_Ingegneria_Informatica_S.p.A/Winsap_CS/20.18.00/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engit.sharepoint.com/sites/FSE2.0Anatomia/Documenti condivisi/FSE 2.0 Anatomia/CS_SESSIONE_20250317/Winsap_CS/20.18.00/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://engit.sharepoint.com/sites/FSE2.0Anatomia/Documenti condivisi/FSE 2.0 Anatomia/CS_SESSIONE_20250327/Winsap_CS/20.18.00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F67EED1A-0A0D-43BB-8D01-6850777776D3}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="13_ncr:1_{6BB359D7-4C82-4617-8601-D4CF5A40298E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DB19696-F8E9-43B9-98B3-9C286906EBC4}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13749" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,38 @@
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
   <si>
+    <t xml:space="preserve">1) Necessario compilare sempre le righe 2,3,4,5 con rispettivamente:
+Nome fornitore dell'applicativo
+nome applicazione: subject_application_id
+Nome fornitore: subject_application_vendor
+versione applicazione: subject_application_version
+</t>
+  </si>
+  <si>
     <t>2) Per tutti i casi di test coerenti con la/e tipologia/e di documento utilizzata/e dal software è necessario compilare SEMPRE la colonna APPLICABILITA' con SI o NO</t>
+  </si>
+  <si>
+    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 446, 448, 450, 452,454, 456, 457, 458 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
+  </si>
+  <si>
+    <t>4) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
+    DATA ESECUZIONE, 
+    TIMESTAMP, 
+    TRACEID,
+    WORKFLOWINSTANCEID (ove ritornato in response, qualora non ritornato il WORKFLOWINSTANCEID puo' essere lasciato blank), 
+    ERRORE BLOCCANTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    ERRORE VISIBILE A UTENTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    MESSAGGIO DI ERRORE da compilare con il messaggio di errore visualizzato dall’applicativo, solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT visibili all'utente (colonna ERRORE VISIBILE A UTENTE (SI/NO)=SI)
+    GESTITO IN BACKOFFICE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO A FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+   INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO  (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
+    GESTIONE ERRORE da compilare con la procedura che viene adottata per la gestione dell'errore, solo per i casi KO (ovvero con CASO OK / KO= KO) e per i casi di test di TIMEOUT,  specificando le modalità di invio del documento clinico al FSE a seguito della correzione dell'errore e chiarendo se è possibile per l'utente (medico) proseguire con il processo e produrre il documento. Esclusivamente per i casi di test di TIMEOUT, qualora non fosse prevista una coda di retry e la gestione dell'errore non fossa gestita da un operatore di backoffice, indicare le modalità attraverso cui è reso esplicito all’utente (medico) di effettuare nuovi tentativi di invio verso il FSE fino al ripristino del servizio di validazione.</t>
+  </si>
+  <si>
+    <t>5) Se il test NON è applicabile la colonna APPLICABILITA' riporterà NO e dovrà essere compilata esclusivamente la colonna RAZIONALE DI APPLICABILITA' con le motivazioni per cui il test non è applicabile. Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo;c ampo obbligatorio; campo valorizzato di default; campo valorizzato in automatico tramite dati recuperati da servizi esterni; campo valorizzabile tramite selezione da un set di valori ammessi; l’applicativo effettua controlli preventivi sul dato inserito; altro (specificare)). Nel caso in cui si selezioni l'opzione "Altro (specificare)" è necessario compilare la colonna RAZIONALE DI "APPLICABILITA' - ALTRO" con le motivazioni per le quali il test non è applicabile.</t>
+  </si>
+  <si>
+    <t>6) La colonna TEST AUTOCERTIFICATO non deve mai essere compilata dal fornitore</t>
   </si>
   <si>
     <t>COME VALORIZZARE I DATAJSON</t>
@@ -156,6 +187,20 @@
 d. tipi di documento e servizi che sono oggetto dell’accreditamento</t>
   </si>
   <si>
+    <r>
+      <t>I file CDA2 necessari all'esecuzione dei test di accreditamento devono essere costruiti secondo le specifiche nazionali https://www.hl7.it/realm-italiano/ e coerentemente ai casi di test descritti.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
     <t>Per il Mapping tra tipologia documenti, servizio e ID Test Cases (colonna A), è possibile fare riferimento al tab "Summary"</t>
   </si>
   <si>
@@ -165,6 +210,12 @@
     <t>IDENTIFICATIVI SOFTWARE</t>
   </si>
   <si>
+    <t xml:space="preserve">subject_application_vendor:Engineering Ingegneria Informatica SpA	</t>
+  </si>
+  <si>
+    <t>subject_application_version:20.18.00</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -198,6 +249,9 @@
     <t>RAZIONALE DI APPLICABILITA'</t>
   </si>
   <si>
+    <t>RAZIONALE DI APPLICABILITA' - ALTRO</t>
+  </si>
+  <si>
     <t>ERRORE BLOCCANTE (SI/NO)</t>
   </si>
   <si>
@@ -210,6 +264,12 @@
     <t>GESTITO IN BACKOFFICE (SI/NO)</t>
   </si>
   <si>
+    <t xml:space="preserve"> PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)</t>
+  </si>
+  <si>
     <t>GESTIONE ERRORE</t>
   </si>
   <si>
@@ -231,28 +291,15 @@
     <t>LAB</t>
   </si>
   <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
     <t>OK</t>
-  </si>
-  <si>
-    <t>LDO</t>
-  </si>
-  <si>
-    <t>RAD</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT1</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAD_CT2</t>
-  </si>
-  <si>
-    <t>CERT_VAC</t>
-  </si>
-  <si>
-    <t>SING_VAC</t>
-  </si>
-  <si>
-    <t>VPS</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_LAB_KO</t>
@@ -307,6 +354,9 @@
     <t>KO</t>
   </si>
   <si>
+    <t>LDO</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
   </si>
   <si>
@@ -316,6 +366,9 @@
     <t>VALIDAZIONE_TOKEN_JWT_PSS_KO</t>
   </si>
   <si>
+    <t>RAD</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_TOKEN_JWT_RAD_KO</t>
   </si>
   <si>
@@ -325,10 +378,19 @@
     <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
   </si>
   <si>
+    <t>CERT_VAC</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_TOKEN_JWT_CERT_VAC_KO</t>
   </si>
   <si>
+    <t>SING_VAC</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_TOKEN_JWT_SING_VAC_KO</t>
+  </si>
+  <si>
+    <t>VPS</t>
   </si>
   <si>
     <t>VALIDAZIONE_TOKEN_JWT_VPS_KO</t>
@@ -407,6 +469,10 @@
     <t>VALIDAZIONE_LAB_TIMEOUT</t>
   </si>
   <si>
+    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
     <t>SI</t>
   </si>
   <si>
@@ -490,34 +556,78 @@
     <t>VALIDAZIONE_CDA2_LDO_CT6_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT8_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT9_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT10_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT11_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT12_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT13_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT14_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT15_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT16_KO</t>
   </si>
   <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT6_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT8_KO</t>
@@ -530,13 +640,29 @@
     <t>VALIDAZIONE_CDA2_RAD_CT9_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT10_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT11_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT12_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT13_KO</t>
@@ -556,13 +682,29 @@
     <t>VALIDAZIONE_CDA2_RAD_CT15_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT16_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT17_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT18_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RAD_CT19_KO</t>
@@ -582,22 +724,50 @@
     <t>VALIDAZIONE_CDA2_RAD_CT21_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT22_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT23_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT6_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT8_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT9_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT10_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT11_KO</t>
@@ -610,10 +780,22 @@
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT12_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT13_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT14_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT15_KO</t>
@@ -626,10 +808,22 @@
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT16_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT17_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_SING_VAC_CT6_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_SING_VAC_CT8_KO</t>
@@ -642,34 +836,78 @@
     <t>VALIDAZIONE_CDA2_SING_VAC_CT9_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_SING_VAC_CT10_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_SING_VAC_CT11_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_SING_VAC_CT12_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_SING_VAC_CT13_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_SING_VAC_CT14_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_SING_VAC_CT15_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_SING_VAC_CT16_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_SING_VAC_CT17_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_SING_VAC_CT18_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_SING_VAC_CT19_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_VPS_CT6_KO</t>
@@ -682,6 +920,10 @@
     <t>VALIDAZIONE_CDA2_VPS_CT8_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT9_KO</t>
   </si>
   <si>
@@ -706,6 +948,10 @@
     <t>VALIDAZIONE_CDA2_VPS_CT12_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT13_KO</t>
   </si>
   <si>
@@ -730,6 +976,10 @@
     <t>VALIDAZIONE_CDA2_VPS_CT16_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT17_KO</t>
   </si>
   <si>
@@ -754,6 +1004,10 @@
     <t>VALIDAZIONE_CDA2_VPS_CT20_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT21_KO</t>
   </si>
   <si>
@@ -778,6 +1032,10 @@
     <t>VALIDAZIONE_CDA2_VPS_CT24_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT25_KO</t>
   </si>
   <si>
@@ -802,22 +1060,50 @@
     <t>VALIDAZIONE_CDA2_VPS_CT28_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_VPS_CT29_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT6_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT8_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT9_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT10_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT12_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT13_KO</t>
@@ -837,49 +1123,99 @@
     <t>VALIDAZIONE_CDA2_RSA_CT15_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT16_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT17_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT18_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT19_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT20_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT21_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT22_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT23_KO</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT1</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_PSS_CT2</t>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_PSS_CT6_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT8_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT9_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT10_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT11_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_PSS_CT12_KO</t>
@@ -892,104 +1228,279 @@
     <t>VALIDAZIONE_CDA2_PSS_CT13_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT14_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT15_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT16_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT17_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT18_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT19_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT20_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_PSS_CT21_KO</t>
   </si>
   <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LAB_TRASF_CT1</t>
   </si>
   <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LAB_TRASF_CT2</t>
   </si>
   <si>
-    <t>ID TEST CASE OK</t>
-  </si>
-  <si>
-    <t>ID TEST CASE KO</t>
-  </si>
-  <si>
-    <t>Validazione</t>
-  </si>
-  <si>
-    <t>LAB - TRASF</t>
-  </si>
-  <si>
-    <t>191,376 più ove possibile fare riferimento agli "ID TEST CASE OK" del Tipo "LAB"</t>
-  </si>
-  <si>
-    <t>Fare riferimento agli "ID TEST CASE KO" del Tipo "LAB"</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>RAP</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT1</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
+</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RAP_KO</t>
   </si>
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t>RAZIONALE DI APPLICABILITA' - ALTRO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)</t>
-  </si>
-  <si>
-    <t>Razionale di Applicabilità</t>
-  </si>
-  <si>
-    <t>Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
-  </si>
-  <si>
-    <t>Campo obbligatorio</t>
-  </si>
-  <si>
     <t>Campo valorizzato di default</t>
   </si>
   <si>
-    <t>Campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
-  </si>
-  <si>
-    <t>Campo valorizzabile tramite selezione da un set di valori ammessi</t>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAP_KO</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RAP_TIMEOUT</t>
+  </si>
+  <si>
+    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>In caso di timeout l'applicazione procede alla firma del referto ed inserisce il referto nella coda di invio verso il repository locale che provvederà all'invio ad FSE</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT12_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT13_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2025-03-19T12:28:31Z</t>
+  </si>
+  <si>
+    <t>62800d3fd629a362</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.65348d142b9ed6590b99096d8fc73df132dcec320c81e438d3517397d330acbc.69ef7191df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.1 v2.80, Codes: PROVA]</t>
+  </si>
+  <si>
+    <t>Essendo l'errore blocante non non è possibile eseguire la firma e sottimissione al repository. L'utente dovrà correggere la non conformita e riprovare a fimare il referto</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT14_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT15_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>L’applicativo effettua controlli preventivi sul dato inserito</t>
   </si>
   <si>
-    <t>Altro (specificare)</t>
-  </si>
-  <si>
-    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
-"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
-  </si>
-  <si>
-    <t>Versione:</t>
-  </si>
-  <si>
-    <t>444, 445</t>
+    <t>VALIDAZIONE_CDA2_RAP_CT17_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2025-03-19T12:37:19Z</t>
+  </si>
+  <si>
+    <t>dfd31bb8ed8e2c69</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.8aa65fe0bf3c5e0ce900afd644a792555726ac91a2e2155122acb3ff03a1673b.fc1bbeb4d6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERRORE-b28| Sezione Epicrisi: La sezione DEVE contenere l'elemento text obbligatorio.]</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT18_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2025-03-19T12:45:11Z</t>
+  </si>
+  <si>
+    <t>be9de617cefd9f6d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.eddbefe96295f3a6f2df77bd0b5b07bf5983c7ceec6d11496400b47899efb45e.4fd7e45a89^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERRORE-b195| Sezione Diagnosi: L'elemento entry/organizer/component/observation (Linfonodi) deve avere l'elemento value con @xsi:type='IVL_PQ', che identifica il numero dei linfonodi.]</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT20_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2025-03-19T12:49:46Z</t>
+  </si>
+  <si>
+    <t>d86d6f8b7bb9d73f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.708e6ca4f0b0b6c4293abf91a756334d99cc657b79a9bce461dc82f031aa4a60.eaf9bd5822^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERRORE-b69| Sotto-sezione Anamnesi (entry Anamnesi familiare): L'elemento entry/organizer/subject/relatedSubject deve contenere l'elemento code.]</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT21_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2025-03-19T13:15:11Z</t>
+  </si>
+  <si>
+    <t>798e2dcf628f2502</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.fff62558a274e6d3ba3f54fe7788e0a4e6fc806b99fb17f569a2b089d601b1f4.510d53dd30^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>[ERRORE-b103| SSotto-sezione Allergie: l'elemento entry/act/entryRelationship/observation/effectiveTime è obbligatorio.]</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT22_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>2025-03-19T14:14:34Z</t>
+  </si>
+  <si>
+    <t>f165cd04a98368a4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.8564f4e9a85138f133549caf1f740d24ee30e697ebb3abcd68c0f2af718ab2ca.711fd05147^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: PROVA]</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RAP_CT23_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT1</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
@@ -997,515 +1508,54 @@
 </t>
   </si>
   <si>
+    <t>VALIDAZIONE_CDA2_PSS_CT2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
 Il Documento CDA2 Profilo Sanitario Sintetico dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
 </t>
   </si>
   <si>
-    <r>
-      <t>I file CDA2 necessari all'esecuzione dei test di accreditamento devono essere costruiti secondo le specifiche nazionali https://www.hl7.it/realm-italiano/ e coerentemente ai casi di test descritti.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>4) Se il test è applicabile la colonna APPLICABILITA' deve essere compilata con SI e dovranno essere valorizzate:
-    DATA ESECUZIONE, 
-    TIMESTAMP, 
-    TRACEID,
-    WORKFLOWINSTANCEID (ove ritornato in response, qualora non ritornato il WORKFLOWINSTANCEID puo' essere lasciato blank), 
-    ERRORE BLOCCANTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    ERRORE VISIBILE A UTENTE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    MESSAGGIO DI ERRORE da compilare con il messaggio di errore visualizzato dall’applicativo, solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT visibili all'utente (colonna ERRORE VISIBILE A UTENTE (SI/NO)=SI)
-    GESTITO IN BACKOFFICE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO A FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-   INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO) da compilare solo per i casi KO  (ovvero con colonna CASO OK / KO= KO) e per i casi di test di TIMEOUT,
-    GESTIONE ERRORE da compilare con la procedura che viene adottata per la gestione dell'errore, solo per i casi KO (ovvero con CASO OK / KO= KO) e per i casi di test di TIMEOUT,  specificando le modalità di invio del documento clinico al FSE a seguito della correzione dell'errore e chiarendo se è possibile per l'utente (medico) proseguire con il processo e produrre il documento. Esclusivamente per i casi di test di TIMEOUT, qualora non fosse prevista una coda di retry e la gestione dell'errore non fossa gestita da un operatore di backoffice, indicare le modalità attraverso cui è reso esplicito all’utente (medico) di effettuare nuovi tentativi di invio verso il FSE fino al ripristino del servizio di validazione.</t>
-  </si>
-  <si>
-    <t>5) Se il test NON è applicabile la colonna APPLICABILITA' riporterà NO e dovrà essere compilata esclusivamente la colonna RAZIONALE DI APPLICABILITA' con le motivazioni per cui il test non è applicabile. Il campo è valorizzabile tramite selezione da menù a tendina (campo/sezione non gestito/a in modo strutturato dall’applicativo;c ampo obbligatorio; campo valorizzato di default; campo valorizzato in automatico tramite dati recuperati da servizi esterni; campo valorizzabile tramite selezione da un set di valori ammessi; l’applicativo effettua controlli preventivi sul dato inserito; altro (specificare)). Nel caso in cui si selezioni l'opzione "Altro (specificare)" è necessario compilare la colonna RAZIONALE DI "APPLICABILITA' - ALTRO" con le motivazioni per le quali il test non è applicabile.</t>
-  </si>
-  <si>
-    <t>6) La colonna TEST AUTOCERTIFICATO non deve mai essere compilata dal fornitore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) Necessario compilare sempre le righe 2,3,4,5 con rispettivamente:
-Nome fornitore dell'applicativo
-nome applicazione: subject_application_id
-Nome fornitore: subject_application_vendor
-versione applicazione: subject_application_version
-</t>
-  </si>
-  <si>
-    <t>RAP</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT1</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT2</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT3</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_RAP_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RAP_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_RAP_TIMEOUT</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT12_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT13_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT14_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT15_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT17_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT18_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT20_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT21_KO</t>
-  </si>
-  <si>
-    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
-"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", "PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT22_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT23_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>TIPO DOCUMENTO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+    <t>VALIDAZIONE_CDA2_RAD_CT1</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>VALIDAZIONE_CDA2_RAD_CT2</t>
+  </si>
+  <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 24" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
+    <t>VALIDAZIONE_CDA2_RSA_CT24</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.  
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 29" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 9" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 15" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 17" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 19" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test PSS" e "CDA2_Profilo_Sanitario_Sintetico_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST- OK" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST OK - HLA" riportata nei documenti "Caso di test - Trasfusionale" e "CDA2_Trasfusionale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>448, 449</t>
-  </si>
-  <si>
-    <t>450, 451</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 22" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>454, 455</t>
-  </si>
-  <si>
-    <t>456, 457</t>
-  </si>
-  <si>
-    <t>458, 459</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RAP_CT24</t>
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT25</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT17</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT18</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_LAB_CT17</t>
@@ -1516,103 +1566,62 @@
 </t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Laboratorio dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test LAB" e "CDA2_Referto Medicina di Laboratorio_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT17</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_LDO_CT18</t>
+    <t>VALIDAZIONE_CDA2_VPS_CT30</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 17" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 30" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_VPS_CT31</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 31" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
+Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 20" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_CERT_VAC_CT18</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 18" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>VALIDAZIONE_CDA2_CERT_VAC_CT19</t>
+  </si>
+  <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Certificato Vaccinale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 19" riportata nei documenti "casi di test CERT_VACC" e "CDA2_Certificato Vaccinale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT4</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_SING_VAC_CT20</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Scheda Singola Vaccinazione dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 20" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT30</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_VPS_CT31</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 31" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
-Il Documento CDA2 Verbale di Pronto Soccorso dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 30" riportata nei documenti "casi di test VPS" e "CDA2_Verbale_Pronto_Soccorso_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT24</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT25</t>
+    <t>VALIDAZIONE_CDA2_RAP_CT24</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+Il Documento CDA2 Anatomia Patologica dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
-  </si>
-  <si>
-    <t>4, 452</t>
-  </si>
-  <si>
-    <t>417, 418, 419, 460</t>
-  </si>
-  <si>
-    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 446, 448, 450, 452,454, 456, 457, 458 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
-  </si>
-  <si>
-    <t>8.2.4</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RAD_CT24_KO</t>
   </si>
   <si>
@@ -1641,6 +1650,13 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 21" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t>VALIDAZIONE_CDA2_LAB_CT18</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_LDO_CT19_KO</t>
   </si>
   <si>
@@ -1669,161 +1685,145 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto nella sezione "CASO DI TEST 25" riportata nei documenti "casi di test RAP" e "CDA2_Referto_di_Anatomia_Patologica_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_LAB_CT18</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 18" riportata nei documenti "casi di test SING_VACC" e "CDA2_Scheda_Singola Vaccinazione_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+    <t>Campo obbligatorio</t>
+  </si>
+  <si>
+    <t>Razionale di Applicabilità</t>
+  </si>
+  <si>
+    <t>Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
+  </si>
+  <si>
+    <t>Campo valorizzato in automatico tramite dati recuperati da servizi esterni</t>
+  </si>
+  <si>
+    <t>Campo valorizzabile tramite selezione da un set di valori ammessi</t>
+  </si>
+  <si>
+    <t>Altro (specificare)</t>
+  </si>
+  <si>
+    <t>TIPO DOCUMENTO</t>
+  </si>
+  <si>
+    <t>ID TEST CASE OK</t>
+  </si>
+  <si>
+    <t>ID TEST CASE KO</t>
+  </si>
+  <si>
+    <t>Versione:</t>
+  </si>
+  <si>
+    <t>8.2.4</t>
+  </si>
+  <si>
+    <t>Validazione</t>
+  </si>
+  <si>
+    <t>4, 452</t>
   </si>
   <si>
     <t>28,36,44,53,55,56,57,58,59,60,61,62, 466</t>
   </si>
   <si>
+    <t>450, 451</t>
+  </si>
+  <si>
     <t>29,37,45,64,66,67,68,69,70,71,72,73,74, 467</t>
   </si>
   <si>
     <t>31,39,47,76,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93, 462</t>
   </si>
   <si>
+    <t>458, 459</t>
+  </si>
+  <si>
     <t>33,41,49,95,97,98,99,100,101,102,103,104,105,106, 464</t>
   </si>
   <si>
+    <t>456, 457</t>
+  </si>
+  <si>
     <t>34,42,50,108,110,111,112,113,114,115,116,117,118,119,120,121, 465</t>
   </si>
   <si>
+    <t>454, 455</t>
+  </si>
+  <si>
     <t>35,43,51,123,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146, 463</t>
   </si>
   <si>
+    <t>448, 449</t>
+  </si>
+  <si>
     <t>32,40,48,152,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169, 461, 468</t>
   </si>
   <si>
+    <t>444, 445</t>
+  </si>
+  <si>
     <t>30,38,46,175,177,178,179,180,181,182,183,184,185,186,187,188,189,190, 469</t>
   </si>
   <si>
+    <t>LAB - TRASF</t>
+  </si>
+  <si>
+    <t>191,376 più ove possibile fare riferimento agli "ID TEST CASE OK" del Tipo "LAB"</t>
+  </si>
+  <si>
+    <t>Fare riferimento agli "ID TEST CASE KO" del Tipo "LAB"</t>
+  </si>
+  <si>
+    <t>417, 418, 419, 460</t>
+  </si>
+  <si>
     <t>423,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449, 470</t>
   </si>
   <si>
-    <t>subject_application_id:Winsap_CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subject_application_vendor:Engineering Ingegneria Informatica SpA	</t>
-  </si>
-  <si>
-    <t>subject_application_version:20.18.00</t>
-  </si>
-  <si>
-    <t>574b042b80968070</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.90b6c618838bbc66cd9aecea7a711213f198dbbf8c0584ca27500baf9d2f682f.ce0b3e5835^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-18T11:31:10Z</t>
-  </si>
-  <si>
-    <t>c718b2a499ec98ff</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.06c877853225e28bee80ea9f64fd5c5e31acee3e336da8367f830f0ce08f9763.42955a894d^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-17T17:45:30Z</t>
-  </si>
-  <si>
-    <t>2025-03-18T16:07:05Z</t>
-  </si>
-  <si>
-    <t>f28f6d505183d3b8</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.42762fd41ebec49b4555a3475e1ee0596d4b3624956ade5a6a757bbd3578b148.0640a69791^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-18T16:18:55Z</t>
-  </si>
-  <si>
-    <t>731ac160aec5c71e</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.a03f374d5a60e04b5c2cdc696e56794db32342cf52106c69d360d249282d5e4d.59f5b94610^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.1 v2.80, Codes: PROVA]</t>
-  </si>
-  <si>
-    <t>Essendo l'errore blocante non non è possibile eseguire la firma e sottimissione al repository. L'utente dovrà correggere la non conformita e riprovare a fimare il referto</t>
-  </si>
-  <si>
-    <t>[ERRORE-b28| Sezione Epicrisi: La sezione DEVE contenere l'elemento text obbligatorio.]</t>
-  </si>
-  <si>
-    <t>[ERRORE-b195| Sezione Diagnosi: L'elemento entry/organizer/component/observation (Linfonodi) deve avere l'elemento value con @xsi:type='IVL_PQ', che identifica il numero dei linfonodi.]</t>
-  </si>
-  <si>
-    <t>[ERRORE-b69| Sotto-sezione Anamnesi (entry Anamnesi familiare): L'elemento entry/organizer/subject/relatedSubject deve contenere l'elemento code.]</t>
-  </si>
-  <si>
-    <t>[ERRORE-b103| SSotto-sezione Allergie: l'elemento entry/act/entryRelationship/observation/effectiveTime è obbligatorio.]</t>
-  </si>
-  <si>
-    <t>Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: PROVA]</t>
-  </si>
-  <si>
-    <t>In caso di timeout l'applicazione procede alla firma del referto ed inserisce il referto nella coda di invio verso il repository locale che provvederà all'invio ad FSE</t>
-  </si>
-  <si>
-    <t>2025-03-19T12:28:31Z</t>
-  </si>
-  <si>
-    <t>62800d3fd629a362</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.65348d142b9ed6590b99096d8fc73df132dcec320c81e438d3517397d330acbc.69ef7191df^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-19T12:37:19Z</t>
-  </si>
-  <si>
-    <t>dfd31bb8ed8e2c69</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.8aa65fe0bf3c5e0ce900afd644a792555726ac91a2e2155122acb3ff03a1673b.fc1bbeb4d6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-19T12:45:11Z</t>
-  </si>
-  <si>
-    <t>be9de617cefd9f6d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.eddbefe96295f3a6f2df77bd0b5b07bf5983c7ceec6d11496400b47899efb45e.4fd7e45a89^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-19T12:49:46Z</t>
-  </si>
-  <si>
-    <t>d86d6f8b7bb9d73f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.708e6ca4f0b0b6c4293abf91a756334d99cc657b79a9bce461dc82f031aa4a60.eaf9bd5822^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-19T13:15:11Z</t>
-  </si>
-  <si>
-    <t>798e2dcf628f2502</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.fff62558a274e6d3ba3f54fe7788e0a4e6fc806b99fb17f569a2b089d601b1f4.510d53dd30^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-19T14:14:34Z</t>
-  </si>
-  <si>
-    <t>f165cd04a98368a4</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.1.8564f4e9a85138f133549caf1f740d24ee30e697ebb3abcd68c0f2af718ab2ca.711fd05147^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>2025-03-28T10:02:18Z</t>
+  </si>
+  <si>
+    <t>0111aa00f6b93da4</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.536920ca055604426724b87e4a6fd2cfbfe339e2838c550f95eadab143bb6fb9.d1ceb97cd8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-28T10:29:49Z</t>
+  </si>
+  <si>
+    <t>3ee4421dc376a985</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.92688ed5363591fa464379a8d9e79d55954023a1bfdf40dfe6706307ed3d9b72.7f95c7b3c7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-28T10:36:04Z</t>
+  </si>
+  <si>
+    <t>0e2d708aaf005402</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.3cee931f5a290257bba768f2cc0728c638a2458d61e49b4adcbf0f8da6412c5b.781559751e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-28T11:43:02Z</t>
+  </si>
+  <si>
+    <t>6b3356dbda1c80de</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.1.2dac333a7a4dc5cb46f3b4a59033156f7696d7b64fbececc2db0d8daa6a2a76d.af6495145b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>subject_application_id:Winsap c/s</t>
   </si>
 </sst>
 </file>
@@ -1833,7 +1833,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1902,12 +1902,6 @@
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2306,7 +2300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2341,27 +2335,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2383,7 +2377,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2422,10 +2416,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2527,6 +2518,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2751,7 +2746,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="130.15234375" customWidth="1"/>
     <col min="2" max="26" width="8.84375" customWidth="1"/>
@@ -2764,32 +2759,32 @@
     </row>
     <row r="2" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>255</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>405</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="276.89999999999998" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>252</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A6" s="17" t="s">
-        <v>253</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
-        <v>254</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
@@ -2797,17 +2792,17 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
@@ -2830,7 +2825,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.15234375" customWidth="1"/>
     <col min="2" max="2" width="194.15234375" customWidth="1"/>
@@ -2839,12 +2834,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2855,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2863,7 +2858,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2871,7 +2866,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -2879,7 +2874,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -2887,7 +2882,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -2895,7 +2890,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3897,27 +3892,27 @@
   <dimension ref="A1:W756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="N150" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B150" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A155" sqref="A155:XFD155"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.4609375" customWidth="1"/>
+    <col min="1" max="1" width="11.3828125" customWidth="1"/>
     <col min="2" max="2" width="46.84375" customWidth="1"/>
     <col min="3" max="3" width="20.15234375" customWidth="1"/>
     <col min="4" max="4" width="63.84375" customWidth="1"/>
     <col min="5" max="5" width="104.84375" customWidth="1"/>
     <col min="6" max="9" width="33.15234375" customWidth="1"/>
     <col min="10" max="10" width="27.15234375" customWidth="1"/>
-    <col min="11" max="18" width="36.4609375" customWidth="1"/>
+    <col min="11" max="18" width="36.3828125" customWidth="1"/>
     <col min="19" max="19" width="27.15234375" customWidth="1"/>
     <col min="20" max="20" width="33.15234375" customWidth="1"/>
-    <col min="21" max="21" width="36.4609375" customWidth="1"/>
+    <col min="21" max="21" width="36.3828125" customWidth="1"/>
     <col min="22" max="23" width="31.84375" customWidth="1"/>
-    <col min="27" max="27" width="30.921875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -3942,12 +3937,12 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="49"/>
+      <c r="A2" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="48"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3968,14 +3963,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="57" t="s">
-        <v>434</v>
-      </c>
-      <c r="D3" s="49"/>
+      <c r="A3" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="D3" s="48"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3996,12 +3991,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="57" t="s">
-        <v>435</v>
-      </c>
-      <c r="D4" s="49"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="48"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4023,12 +4018,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="55"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
-        <v>436</v>
-      </c>
-      <c r="D5" s="49"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="48"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4049,8 +4044,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4116,90 +4111,90 @@
     </row>
     <row r="9" spans="1:23" s="18" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="19" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K9" s="20" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>235</v>
+        <v>33</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N9" s="20" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="O9" s="20" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>237</v>
+        <v>39</v>
       </c>
       <c r="S9" s="20" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="T9" s="20" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="U9" s="21" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="V9" s="20" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="W9" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="38">
         <v>4</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>379</v>
+        <v>47</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>380</v>
+        <v>48</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
@@ -4219,24 +4214,24 @@
       <c r="U10" s="34"/>
       <c r="V10" s="35"/>
       <c r="W10" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="31">
         <v>28</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
@@ -4256,24 +4251,24 @@
       <c r="U11" s="34"/>
       <c r="V11" s="35"/>
       <c r="W11" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="31">
         <v>29</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
@@ -4293,24 +4288,24 @@
       <c r="U12" s="34"/>
       <c r="V12" s="35"/>
       <c r="W12" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="31">
         <v>30</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
@@ -4330,24 +4325,24 @@
       <c r="U13" s="34"/>
       <c r="V13" s="35"/>
       <c r="W13" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="31">
         <v>31</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
@@ -4367,24 +4362,24 @@
       <c r="U14" s="34"/>
       <c r="V14" s="35"/>
       <c r="W14" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="31">
         <v>32</v>
       </c>
       <c r="B15" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C15" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>51</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>45</v>
       </c>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
@@ -4404,24 +4399,24 @@
       <c r="U15" s="34"/>
       <c r="V15" s="35"/>
       <c r="W15" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="31">
         <v>33</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F16" s="33"/>
       <c r="G16" s="33"/>
@@ -4441,24 +4436,24 @@
       <c r="U16" s="34"/>
       <c r="V16" s="35"/>
       <c r="W16" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="31">
         <v>34</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="33"/>
@@ -4478,24 +4473,24 @@
       <c r="U17" s="34"/>
       <c r="V17" s="35"/>
       <c r="W17" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="31">
         <v>35</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="33"/>
@@ -4515,24 +4510,24 @@
       <c r="U18" s="34"/>
       <c r="V18" s="35"/>
       <c r="W18" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="31">
         <v>36</v>
       </c>
       <c r="B19" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="33"/>
@@ -4552,24 +4547,24 @@
       <c r="U19" s="34"/>
       <c r="V19" s="35"/>
       <c r="W19" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="31">
         <v>37</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="33"/>
@@ -4589,24 +4584,24 @@
       <c r="U20" s="34"/>
       <c r="V20" s="35"/>
       <c r="W20" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="31">
         <v>38</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D21" s="31" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -4626,24 +4621,24 @@
       <c r="U21" s="34"/>
       <c r="V21" s="35"/>
       <c r="W21" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="31">
         <v>39</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D22" s="31" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -4663,24 +4658,24 @@
       <c r="U22" s="34"/>
       <c r="V22" s="35"/>
       <c r="W22" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="31">
         <v>40</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D23" s="31" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -4700,24 +4695,24 @@
       <c r="U23" s="34"/>
       <c r="V23" s="35"/>
       <c r="W23" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="31">
         <v>41</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
@@ -4737,24 +4732,24 @@
       <c r="U24" s="34"/>
       <c r="V24" s="35"/>
       <c r="W24" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="31">
         <v>42</v>
       </c>
       <c r="B25" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D25" s="31" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
@@ -4774,24 +4769,24 @@
       <c r="U25" s="34"/>
       <c r="V25" s="35"/>
       <c r="W25" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="31">
         <v>43</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D26" s="31" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="33"/>
@@ -4811,24 +4806,24 @@
       <c r="U26" s="34"/>
       <c r="V26" s="35"/>
       <c r="W26" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="31">
         <v>44</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C27" s="37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D27" s="31" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="33"/>
@@ -4846,28 +4841,28 @@
       <c r="S27" s="29"/>
       <c r="T27" s="29"/>
       <c r="U27" s="34" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="V27" s="35"/>
       <c r="W27" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="31">
         <v>45</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C28" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D28" s="31" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="33"/>
@@ -4885,28 +4880,28 @@
       <c r="S28" s="29"/>
       <c r="T28" s="29"/>
       <c r="U28" s="34" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="V28" s="35"/>
       <c r="W28" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29" s="31">
         <v>46</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C29" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D29" s="31" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="33"/>
@@ -4924,28 +4919,28 @@
       <c r="S29" s="29"/>
       <c r="T29" s="29"/>
       <c r="U29" s="34" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="V29" s="35"/>
       <c r="W29" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30" s="31">
         <v>47</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D30" s="31" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="33"/>
@@ -4963,28 +4958,28 @@
       <c r="S30" s="29"/>
       <c r="T30" s="29"/>
       <c r="U30" s="34" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="V30" s="35"/>
       <c r="W30" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="31">
         <v>48</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C31" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="33"/>
@@ -5002,28 +4997,28 @@
       <c r="S31" s="29"/>
       <c r="T31" s="29"/>
       <c r="U31" s="34" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="V31" s="35"/>
       <c r="W31" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32" s="31">
         <v>49</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D32" s="31" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="33"/>
@@ -5041,28 +5036,28 @@
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
       <c r="U32" s="34" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="V32" s="35"/>
       <c r="W32" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="31">
         <v>50</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C33" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D33" s="31" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
@@ -5080,28 +5075,28 @@
       <c r="S33" s="29"/>
       <c r="T33" s="29"/>
       <c r="U33" s="34" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="V33" s="35"/>
       <c r="W33" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="31">
         <v>51</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D34" s="31" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
@@ -5119,28 +5114,28 @@
       <c r="S34" s="29"/>
       <c r="T34" s="29"/>
       <c r="U34" s="34" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="V34" s="35"/>
       <c r="W34" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="31">
         <v>55</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D35" s="31" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -5160,24 +5155,24 @@
       <c r="U35" s="34"/>
       <c r="V35" s="35"/>
       <c r="W35" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="31">
         <v>56</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D36" s="31" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="33"/>
@@ -5197,24 +5192,24 @@
       <c r="U36" s="34"/>
       <c r="V36" s="35"/>
       <c r="W36" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="31">
         <v>57</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="33"/>
@@ -5234,24 +5229,24 @@
       <c r="U37" s="34"/>
       <c r="V37" s="35"/>
       <c r="W37" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="31">
         <v>58</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D38" s="31" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="33"/>
@@ -5271,24 +5266,24 @@
       <c r="U38" s="34"/>
       <c r="V38" s="35"/>
       <c r="W38" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="31">
         <v>59</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D39" s="31" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="33"/>
@@ -5308,24 +5303,24 @@
       <c r="U39" s="34"/>
       <c r="V39" s="35"/>
       <c r="W39" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="31">
         <v>60</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D40" s="31" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="33"/>
@@ -5345,24 +5340,24 @@
       <c r="U40" s="34"/>
       <c r="V40" s="35"/>
       <c r="W40" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="31">
         <v>61</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D41" s="31" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="33"/>
@@ -5382,24 +5377,24 @@
       <c r="U41" s="34"/>
       <c r="V41" s="35"/>
       <c r="W41" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="31">
         <v>62</v>
       </c>
       <c r="B42" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D42" s="31" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="33"/>
@@ -5419,24 +5414,24 @@
       <c r="U42" s="34"/>
       <c r="V42" s="35"/>
       <c r="W42" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="31">
         <v>64</v>
       </c>
       <c r="B43" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D43" s="31" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>302</v>
+        <v>103</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="33"/>
@@ -5456,24 +5451,24 @@
       <c r="U43" s="34"/>
       <c r="V43" s="35"/>
       <c r="W43" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="31">
         <v>66</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D44" s="31" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>303</v>
+        <v>105</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="33"/>
@@ -5493,24 +5488,24 @@
       <c r="U44" s="34"/>
       <c r="V44" s="35"/>
       <c r="W44" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="31">
         <v>67</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D45" s="31" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>304</v>
+        <v>107</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="33"/>
@@ -5530,24 +5525,24 @@
       <c r="U45" s="34"/>
       <c r="V45" s="35"/>
       <c r="W45" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="31">
         <v>68</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>305</v>
+        <v>109</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="33"/>
@@ -5567,24 +5562,24 @@
       <c r="U46" s="34"/>
       <c r="V46" s="35"/>
       <c r="W46" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="31">
         <v>69</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D47" s="31" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>306</v>
+        <v>111</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
@@ -5604,24 +5599,24 @@
       <c r="U47" s="34"/>
       <c r="V47" s="35"/>
       <c r="W47" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="31">
         <v>70</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D48" s="31" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>307</v>
+        <v>113</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="33"/>
@@ -5641,24 +5636,24 @@
       <c r="U48" s="34"/>
       <c r="V48" s="35"/>
       <c r="W48" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="31">
         <v>71</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>308</v>
+        <v>115</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="33"/>
@@ -5678,24 +5673,24 @@
       <c r="U49" s="34"/>
       <c r="V49" s="35"/>
       <c r="W49" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="31">
         <v>72</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>309</v>
+        <v>117</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="33"/>
@@ -5715,24 +5710,24 @@
       <c r="U50" s="34"/>
       <c r="V50" s="35"/>
       <c r="W50" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="31">
         <v>73</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>310</v>
+        <v>119</v>
       </c>
       <c r="F51" s="33"/>
       <c r="G51" s="33"/>
@@ -5752,24 +5747,24 @@
       <c r="U51" s="34"/>
       <c r="V51" s="35"/>
       <c r="W51" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="31">
         <v>74</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>311</v>
+        <v>121</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="33"/>
@@ -5789,24 +5784,24 @@
       <c r="U52" s="34"/>
       <c r="V52" s="35"/>
       <c r="W52" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="31">
         <v>76</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C53" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="33"/>
@@ -5826,24 +5821,24 @@
       <c r="U53" s="34"/>
       <c r="V53" s="35"/>
       <c r="W53" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="31">
         <v>78</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="33"/>
@@ -5863,24 +5858,24 @@
       <c r="U54" s="34"/>
       <c r="V54" s="35"/>
       <c r="W54" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="31">
         <v>79</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>313</v>
+        <v>127</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="33"/>
@@ -5900,24 +5895,24 @@
       <c r="U55" s="34"/>
       <c r="V55" s="35"/>
       <c r="W55" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="31">
         <v>80</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>314</v>
+        <v>129</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="33"/>
@@ -5937,24 +5932,24 @@
       <c r="U56" s="34"/>
       <c r="V56" s="35"/>
       <c r="W56" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="31">
         <v>81</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>315</v>
+        <v>131</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="33"/>
@@ -5974,24 +5969,24 @@
       <c r="U57" s="34"/>
       <c r="V57" s="35"/>
       <c r="W57" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="31">
         <v>82</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>316</v>
+        <v>133</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="33"/>
@@ -6011,24 +6006,24 @@
       <c r="U58" s="34"/>
       <c r="V58" s="35"/>
       <c r="W58" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="31">
         <v>83</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -6048,24 +6043,24 @@
       <c r="U59" s="34"/>
       <c r="V59" s="35"/>
       <c r="W59" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="31">
         <v>84</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="33"/>
@@ -6085,24 +6080,24 @@
       <c r="U60" s="34"/>
       <c r="V60" s="35"/>
       <c r="W60" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="31">
         <v>85</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>317</v>
+        <v>139</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="33"/>
@@ -6122,24 +6117,24 @@
       <c r="U61" s="34"/>
       <c r="V61" s="35"/>
       <c r="W61" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="31">
         <v>86</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C62" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>318</v>
+        <v>141</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="33"/>
@@ -6159,24 +6154,24 @@
       <c r="U62" s="34"/>
       <c r="V62" s="35"/>
       <c r="W62" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="31">
         <v>87</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C63" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D63" s="31" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>319</v>
+        <v>143</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="33"/>
@@ -6196,24 +6191,24 @@
       <c r="U63" s="34"/>
       <c r="V63" s="35"/>
       <c r="W63" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="31">
         <v>88</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C64" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>320</v>
+        <v>145</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="33"/>
@@ -6233,24 +6228,24 @@
       <c r="U64" s="34"/>
       <c r="V64" s="35"/>
       <c r="W64" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="31">
         <v>89</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C65" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
       <c r="E65" s="32" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="33"/>
@@ -6270,24 +6265,24 @@
       <c r="U65" s="34"/>
       <c r="V65" s="35"/>
       <c r="W65" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="31">
         <v>90</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C66" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D66" s="31" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="33"/>
@@ -6307,24 +6302,24 @@
       <c r="U66" s="34"/>
       <c r="V66" s="35"/>
       <c r="W66" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="31">
         <v>91</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D67" s="31" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>321</v>
+        <v>151</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="33"/>
@@ -6344,24 +6339,24 @@
       <c r="U67" s="34"/>
       <c r="V67" s="35"/>
       <c r="W67" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="68" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="31">
         <v>92</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D68" s="31" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>371</v>
+        <v>153</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="33"/>
@@ -6381,24 +6376,24 @@
       <c r="U68" s="34"/>
       <c r="V68" s="35"/>
       <c r="W68" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="69" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="31">
         <v>93</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D69" s="31" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="E69" s="32" t="s">
-        <v>322</v>
+        <v>155</v>
       </c>
       <c r="F69" s="33"/>
       <c r="G69" s="33"/>
@@ -6418,24 +6413,24 @@
       <c r="U69" s="34"/>
       <c r="V69" s="35"/>
       <c r="W69" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="70" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="31">
         <v>95</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D70" s="31" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>323</v>
+        <v>157</v>
       </c>
       <c r="F70" s="33"/>
       <c r="G70" s="33"/>
@@ -6455,24 +6450,24 @@
       <c r="U70" s="34"/>
       <c r="V70" s="35"/>
       <c r="W70" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="31">
         <v>97</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D71" s="31" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="E71" s="32" t="s">
-        <v>324</v>
+        <v>159</v>
       </c>
       <c r="F71" s="33"/>
       <c r="G71" s="33"/>
@@ -6492,24 +6487,24 @@
       <c r="U71" s="34"/>
       <c r="V71" s="35"/>
       <c r="W71" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="72" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="31">
         <v>98</v>
       </c>
       <c r="B72" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>325</v>
+        <v>161</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="33"/>
@@ -6529,24 +6524,24 @@
       <c r="U72" s="34"/>
       <c r="V72" s="35"/>
       <c r="W72" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="73" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="31">
         <v>99</v>
       </c>
       <c r="B73" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C73" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="33"/>
@@ -6566,24 +6561,24 @@
       <c r="U73" s="34"/>
       <c r="V73" s="35"/>
       <c r="W73" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="74" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="31">
         <v>100</v>
       </c>
       <c r="B74" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C74" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="33"/>
@@ -6603,24 +6598,24 @@
       <c r="U74" s="34"/>
       <c r="V74" s="35"/>
       <c r="W74" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="31">
         <v>101</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>327</v>
+        <v>167</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="33"/>
@@ -6640,24 +6635,24 @@
       <c r="U75" s="34"/>
       <c r="V75" s="35"/>
       <c r="W75" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="31">
         <v>102</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C76" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>328</v>
+        <v>169</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="33"/>
@@ -6677,24 +6672,24 @@
       <c r="U76" s="34"/>
       <c r="V76" s="35"/>
       <c r="W76" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="77" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="31">
         <v>103</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>329</v>
+        <v>171</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="33"/>
@@ -6714,24 +6709,24 @@
       <c r="U77" s="34"/>
       <c r="V77" s="35"/>
       <c r="W77" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="78" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="31">
         <v>104</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="33"/>
@@ -6751,24 +6746,24 @@
       <c r="U78" s="34"/>
       <c r="V78" s="35"/>
       <c r="W78" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="79" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="31">
         <v>105</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>330</v>
+        <v>175</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="33"/>
@@ -6788,24 +6783,24 @@
       <c r="U79" s="34"/>
       <c r="V79" s="35"/>
       <c r="W79" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="80" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="31">
         <v>106</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D80" s="31" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>331</v>
+        <v>177</v>
       </c>
       <c r="F80" s="33"/>
       <c r="G80" s="33"/>
@@ -6825,24 +6820,24 @@
       <c r="U80" s="34"/>
       <c r="V80" s="35"/>
       <c r="W80" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="31">
         <v>108</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D81" s="31" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>332</v>
+        <v>179</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="33"/>
@@ -6862,24 +6857,24 @@
       <c r="U81" s="34"/>
       <c r="V81" s="35"/>
       <c r="W81" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="31">
         <v>110</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D82" s="31" t="s">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="33"/>
@@ -6899,24 +6894,24 @@
       <c r="U82" s="34"/>
       <c r="V82" s="35"/>
       <c r="W82" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="31">
         <v>111</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>333</v>
+        <v>183</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="33"/>
@@ -6936,24 +6931,24 @@
       <c r="U83" s="34"/>
       <c r="V83" s="35"/>
       <c r="W83" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="31">
         <v>112</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="E84" s="32" t="s">
-        <v>334</v>
+        <v>185</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="33"/>
@@ -6973,24 +6968,24 @@
       <c r="U84" s="34"/>
       <c r="V84" s="35"/>
       <c r="W84" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="31">
         <v>113</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>335</v>
+        <v>187</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="33"/>
@@ -7010,24 +7005,24 @@
       <c r="U85" s="34"/>
       <c r="V85" s="35"/>
       <c r="W85" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="31">
         <v>114</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="E86" s="32" t="s">
-        <v>336</v>
+        <v>189</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="33"/>
@@ -7047,24 +7042,24 @@
       <c r="U86" s="34"/>
       <c r="V86" s="35"/>
       <c r="W86" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="87" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="31">
         <v>115</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>142</v>
+        <v>190</v>
       </c>
       <c r="E87" s="32" t="s">
-        <v>337</v>
+        <v>191</v>
       </c>
       <c r="F87" s="33"/>
       <c r="G87" s="33"/>
@@ -7084,24 +7079,24 @@
       <c r="U87" s="34"/>
       <c r="V87" s="35"/>
       <c r="W87" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="31">
         <v>116</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C88" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="E88" s="32" t="s">
-        <v>338</v>
+        <v>193</v>
       </c>
       <c r="F88" s="33"/>
       <c r="G88" s="33"/>
@@ -7121,24 +7116,24 @@
       <c r="U88" s="34"/>
       <c r="V88" s="35"/>
       <c r="W88" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="31">
         <v>117</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="E89" s="32" t="s">
-        <v>339</v>
+        <v>195</v>
       </c>
       <c r="F89" s="33"/>
       <c r="G89" s="33"/>
@@ -7158,24 +7153,24 @@
       <c r="U89" s="34"/>
       <c r="V89" s="35"/>
       <c r="W89" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="90" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="31">
         <v>118</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D90" s="31" t="s">
-        <v>145</v>
+        <v>196</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>340</v>
+        <v>197</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="33"/>
@@ -7195,24 +7190,24 @@
       <c r="U90" s="34"/>
       <c r="V90" s="35"/>
       <c r="W90" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="31">
         <v>119</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D91" s="31" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>341</v>
+        <v>199</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="33"/>
@@ -7232,24 +7227,24 @@
       <c r="U91" s="34"/>
       <c r="V91" s="35"/>
       <c r="W91" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="31">
         <v>120</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D92" s="31" t="s">
-        <v>147</v>
+        <v>200</v>
       </c>
       <c r="E92" s="32" t="s">
-        <v>342</v>
+        <v>201</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="33"/>
@@ -7269,24 +7264,24 @@
       <c r="U92" s="34"/>
       <c r="V92" s="35"/>
       <c r="W92" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="31">
         <v>121</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="E93" s="32" t="s">
-        <v>343</v>
+        <v>203</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="33"/>
@@ -7306,24 +7301,24 @@
       <c r="U93" s="34"/>
       <c r="V93" s="35"/>
       <c r="W93" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="31">
         <v>123</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="E94" s="32" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="33"/>
@@ -7343,24 +7338,24 @@
       <c r="U94" s="34"/>
       <c r="V94" s="35"/>
       <c r="W94" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="31">
         <v>125</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>344</v>
+        <v>207</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="33"/>
@@ -7380,24 +7375,24 @@
       <c r="U95" s="34"/>
       <c r="V95" s="35"/>
       <c r="W95" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="31">
         <v>126</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="E96" s="32" t="s">
-        <v>153</v>
+        <v>209</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="33"/>
@@ -7417,24 +7412,24 @@
       <c r="U96" s="34"/>
       <c r="V96" s="35"/>
       <c r="W96" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="97" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="31">
         <v>127</v>
       </c>
       <c r="B97" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D97" s="31" t="s">
-        <v>154</v>
+        <v>210</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>155</v>
+        <v>211</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="33"/>
@@ -7454,24 +7449,24 @@
       <c r="U97" s="34"/>
       <c r="V97" s="35"/>
       <c r="W97" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="31">
         <v>128</v>
       </c>
       <c r="B98" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D98" s="31" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="33"/>
@@ -7491,24 +7486,24 @@
       <c r="U98" s="34"/>
       <c r="V98" s="35"/>
       <c r="W98" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="99" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="31">
         <v>129</v>
       </c>
       <c r="B99" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D99" s="31" t="s">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>345</v>
+        <v>215</v>
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="33"/>
@@ -7528,24 +7523,24 @@
       <c r="U99" s="34"/>
       <c r="V99" s="35"/>
       <c r="W99" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A100" s="31">
         <v>130</v>
       </c>
       <c r="B100" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D100" s="31" t="s">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="E100" s="32" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="33"/>
@@ -7565,24 +7560,24 @@
       <c r="U100" s="34"/>
       <c r="V100" s="35"/>
       <c r="W100" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A101" s="31">
         <v>131</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>161</v>
+        <v>218</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>162</v>
+        <v>219</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="33"/>
@@ -7602,24 +7597,24 @@
       <c r="U101" s="34"/>
       <c r="V101" s="35"/>
       <c r="W101" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A102" s="31">
         <v>132</v>
       </c>
       <c r="B102" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D102" s="31" t="s">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c r="E102" s="32" t="s">
-        <v>164</v>
+        <v>221</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="33"/>
@@ -7639,24 +7634,24 @@
       <c r="U102" s="34"/>
       <c r="V102" s="35"/>
       <c r="W102" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A103" s="31">
         <v>133</v>
       </c>
       <c r="B103" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D103" s="31" t="s">
-        <v>165</v>
+        <v>222</v>
       </c>
       <c r="E103" s="32" t="s">
-        <v>299</v>
+        <v>223</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="33"/>
@@ -7676,24 +7671,24 @@
       <c r="U103" s="34"/>
       <c r="V103" s="35"/>
       <c r="W103" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="104" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A104" s="31">
         <v>134</v>
       </c>
       <c r="B104" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D104" s="31" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>167</v>
+        <v>225</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="33"/>
@@ -7713,24 +7708,24 @@
       <c r="U104" s="34"/>
       <c r="V104" s="35"/>
       <c r="W104" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A105" s="31">
         <v>135</v>
       </c>
       <c r="B105" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D105" s="31" t="s">
-        <v>168</v>
+        <v>226</v>
       </c>
       <c r="E105" s="32" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="33"/>
@@ -7750,24 +7745,24 @@
       <c r="U105" s="34"/>
       <c r="V105" s="35"/>
       <c r="W105" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A106" s="31">
         <v>136</v>
       </c>
       <c r="B106" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D106" s="31" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>171</v>
+        <v>229</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="33"/>
@@ -7787,24 +7782,24 @@
       <c r="U106" s="34"/>
       <c r="V106" s="35"/>
       <c r="W106" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A107" s="31">
         <v>137</v>
       </c>
       <c r="B107" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D107" s="31" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="33"/>
@@ -7824,24 +7819,24 @@
       <c r="U107" s="34"/>
       <c r="V107" s="35"/>
       <c r="W107" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A108" s="31">
         <v>138</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="33"/>
@@ -7861,24 +7856,24 @@
       <c r="U108" s="34"/>
       <c r="V108" s="35"/>
       <c r="W108" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A109" s="31">
         <v>139</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="33"/>
@@ -7898,24 +7893,24 @@
       <c r="U109" s="34"/>
       <c r="V109" s="35"/>
       <c r="W109" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="110" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A110" s="31">
         <v>140</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="33"/>
@@ -7935,24 +7930,24 @@
       <c r="U110" s="34"/>
       <c r="V110" s="35"/>
       <c r="W110" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A111" s="31">
         <v>141</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D111" s="31" t="s">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="E111" s="32" t="s">
-        <v>296</v>
+        <v>239</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="33"/>
@@ -7972,24 +7967,24 @@
       <c r="U111" s="34"/>
       <c r="V111" s="35"/>
       <c r="W111" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="112" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A112" s="31">
         <v>142</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="33"/>
@@ -8009,24 +8004,24 @@
       <c r="U112" s="34"/>
       <c r="V112" s="35"/>
       <c r="W112" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="113" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A113" s="31">
         <v>143</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="33"/>
@@ -8046,24 +8041,24 @@
       <c r="U113" s="34"/>
       <c r="V113" s="35"/>
       <c r="W113" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="114" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A114" s="31">
         <v>144</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>184</v>
+        <v>244</v>
       </c>
       <c r="E114" s="32" t="s">
-        <v>185</v>
+        <v>245</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="33"/>
@@ -8083,24 +8078,24 @@
       <c r="U114" s="34"/>
       <c r="V114" s="35"/>
       <c r="W114" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A115" s="31">
         <v>145</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>186</v>
+        <v>246</v>
       </c>
       <c r="E115" s="32" t="s">
-        <v>346</v>
+        <v>247</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="33"/>
@@ -8120,24 +8115,24 @@
       <c r="U115" s="34"/>
       <c r="V115" s="35"/>
       <c r="W115" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="116" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A116" s="31">
         <v>146</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="E116" s="32" t="s">
-        <v>347</v>
+        <v>249</v>
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="33"/>
@@ -8157,24 +8152,24 @@
       <c r="U116" s="34"/>
       <c r="V116" s="35"/>
       <c r="W116" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="117" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A117" s="31">
         <v>152</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D117" s="31" t="s">
-        <v>188</v>
+        <v>250</v>
       </c>
       <c r="E117" s="32" t="s">
-        <v>348</v>
+        <v>251</v>
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="33"/>
@@ -8194,24 +8189,24 @@
       <c r="U117" s="34"/>
       <c r="V117" s="35"/>
       <c r="W117" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="118" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A118" s="31">
         <v>154</v>
       </c>
       <c r="B118" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C118" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D118" s="31" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="E118" s="32" t="s">
-        <v>349</v>
+        <v>253</v>
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="33"/>
@@ -8231,24 +8226,24 @@
       <c r="U118" s="34"/>
       <c r="V118" s="35"/>
       <c r="W118" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="119" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A119" s="31">
         <v>155</v>
       </c>
       <c r="B119" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C119" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D119" s="31" t="s">
-        <v>190</v>
+        <v>254</v>
       </c>
       <c r="E119" s="32" t="s">
-        <v>350</v>
+        <v>255</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="33"/>
@@ -8268,24 +8263,24 @@
       <c r="U119" s="34"/>
       <c r="V119" s="35"/>
       <c r="W119" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="120" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A120" s="31">
         <v>156</v>
       </c>
       <c r="B120" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D120" s="31" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
       <c r="E120" s="32" t="s">
-        <v>351</v>
+        <v>257</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="33"/>
@@ -8305,24 +8300,24 @@
       <c r="U120" s="34"/>
       <c r="V120" s="35"/>
       <c r="W120" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="121" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A121" s="31">
         <v>158</v>
       </c>
       <c r="B121" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D121" s="31" t="s">
-        <v>192</v>
+        <v>258</v>
       </c>
       <c r="E121" s="32" t="s">
-        <v>352</v>
+        <v>259</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="33"/>
@@ -8342,24 +8337,24 @@
       <c r="U121" s="34"/>
       <c r="V121" s="35"/>
       <c r="W121" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="122" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A122" s="31">
         <v>159</v>
       </c>
       <c r="B122" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D122" s="31" t="s">
-        <v>193</v>
+        <v>260</v>
       </c>
       <c r="E122" s="32" t="s">
-        <v>194</v>
+        <v>261</v>
       </c>
       <c r="F122" s="33"/>
       <c r="G122" s="33"/>
@@ -8379,24 +8374,24 @@
       <c r="U122" s="34"/>
       <c r="V122" s="35"/>
       <c r="W122" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="123" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A123" s="31">
         <v>160</v>
       </c>
       <c r="B123" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C123" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D123" s="31" t="s">
-        <v>195</v>
+        <v>262</v>
       </c>
       <c r="E123" s="32" t="s">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="F123" s="33"/>
       <c r="G123" s="33"/>
@@ -8416,24 +8411,24 @@
       <c r="U123" s="34"/>
       <c r="V123" s="35"/>
       <c r="W123" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="124" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A124" s="31">
         <v>161</v>
       </c>
       <c r="B124" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>197</v>
+        <v>264</v>
       </c>
       <c r="E124" s="32" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="F124" s="33"/>
       <c r="G124" s="33"/>
@@ -8453,24 +8448,24 @@
       <c r="U124" s="34"/>
       <c r="V124" s="35"/>
       <c r="W124" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="125" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A125" s="31">
         <v>162</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="E125" s="32" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="F125" s="33"/>
       <c r="G125" s="33"/>
@@ -8490,24 +8485,24 @@
       <c r="U125" s="34"/>
       <c r="V125" s="35"/>
       <c r="W125" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="126" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A126" s="31">
         <v>163</v>
       </c>
       <c r="B126" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C126" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="E126" s="32" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="F126" s="33"/>
       <c r="G126" s="33"/>
@@ -8527,24 +8522,24 @@
       <c r="U126" s="34"/>
       <c r="V126" s="35"/>
       <c r="W126" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="127" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A127" s="31">
         <v>164</v>
       </c>
       <c r="B127" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D127" s="31" t="s">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="E127" s="32" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="F127" s="33"/>
       <c r="G127" s="33"/>
@@ -8564,24 +8559,24 @@
       <c r="U127" s="34"/>
       <c r="V127" s="35"/>
       <c r="W127" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="128" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A128" s="31">
         <v>165</v>
       </c>
       <c r="B128" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D128" s="31" t="s">
-        <v>201</v>
+        <v>272</v>
       </c>
       <c r="E128" s="32" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="33"/>
@@ -8601,24 +8596,24 @@
       <c r="U128" s="34"/>
       <c r="V128" s="35"/>
       <c r="W128" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="129" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A129" s="31">
         <v>166</v>
       </c>
       <c r="B129" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D129" s="31" t="s">
-        <v>202</v>
+        <v>274</v>
       </c>
       <c r="E129" s="32" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="33"/>
@@ -8638,24 +8633,24 @@
       <c r="U129" s="34"/>
       <c r="V129" s="35"/>
       <c r="W129" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="130" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="130" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A130" s="31">
         <v>167</v>
       </c>
       <c r="B130" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D130" s="31" t="s">
-        <v>203</v>
+        <v>276</v>
       </c>
       <c r="E130" s="32" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="33"/>
@@ -8675,24 +8670,24 @@
       <c r="U130" s="34"/>
       <c r="V130" s="35"/>
       <c r="W130" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="131" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A131" s="31">
         <v>168</v>
       </c>
       <c r="B131" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C131" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D131" s="31" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="33"/>
@@ -8712,24 +8707,24 @@
       <c r="U131" s="34"/>
       <c r="V131" s="35"/>
       <c r="W131" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="132" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A132" s="31">
         <v>169</v>
       </c>
       <c r="B132" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D132" s="31" t="s">
-        <v>205</v>
+        <v>280</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="33"/>
@@ -8749,24 +8744,24 @@
       <c r="U132" s="34"/>
       <c r="V132" s="35"/>
       <c r="W132" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="133" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="133" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A133" s="31">
         <v>175</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C133" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D133" s="31" t="s">
-        <v>208</v>
+        <v>282</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>353</v>
+        <v>283</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="33"/>
@@ -8786,24 +8781,24 @@
       <c r="U133" s="34"/>
       <c r="V133" s="35"/>
       <c r="W133" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="134" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="134" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A134" s="31">
         <v>177</v>
       </c>
       <c r="B134" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D134" s="31" t="s">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>354</v>
+        <v>285</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="33"/>
@@ -8823,24 +8818,24 @@
       <c r="U134" s="34"/>
       <c r="V134" s="35"/>
       <c r="W134" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="135" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="135" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A135" s="31">
         <v>178</v>
       </c>
       <c r="B135" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D135" s="31" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>355</v>
+        <v>287</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="33"/>
@@ -8860,24 +8855,24 @@
       <c r="U135" s="34"/>
       <c r="V135" s="35"/>
       <c r="W135" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="136" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A136" s="31">
         <v>179</v>
       </c>
       <c r="B136" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D136" s="31" t="s">
-        <v>211</v>
+        <v>288</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>356</v>
+        <v>289</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="33"/>
@@ -8897,24 +8892,24 @@
       <c r="U136" s="34"/>
       <c r="V136" s="35"/>
       <c r="W136" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="137" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A137" s="31">
         <v>180</v>
       </c>
       <c r="B137" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C137" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D137" s="31" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="E137" s="32" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="33"/>
@@ -8934,24 +8929,24 @@
       <c r="U137" s="34"/>
       <c r="V137" s="35"/>
       <c r="W137" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="138" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A138" s="31">
         <v>181</v>
       </c>
       <c r="B138" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D138" s="31" t="s">
-        <v>213</v>
+        <v>292</v>
       </c>
       <c r="E138" s="32" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="33"/>
@@ -8971,24 +8966,24 @@
       <c r="U138" s="34"/>
       <c r="V138" s="35"/>
       <c r="W138" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="139" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A139" s="31">
         <v>182</v>
       </c>
       <c r="B139" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D139" s="31" t="s">
-        <v>215</v>
+        <v>294</v>
       </c>
       <c r="E139" s="32" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="33"/>
@@ -9008,24 +9003,24 @@
       <c r="U139" s="34"/>
       <c r="V139" s="35"/>
       <c r="W139" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="140" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A140" s="31">
         <v>183</v>
       </c>
       <c r="B140" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C140" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D140" s="31" t="s">
-        <v>216</v>
+        <v>296</v>
       </c>
       <c r="E140" s="32" t="s">
-        <v>359</v>
+        <v>297</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="33"/>
@@ -9045,24 +9040,24 @@
       <c r="U140" s="34"/>
       <c r="V140" s="35"/>
       <c r="W140" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="141" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A141" s="31">
         <v>184</v>
       </c>
       <c r="B141" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C141" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D141" s="31" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="E141" s="32" t="s">
-        <v>360</v>
+        <v>299</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="33"/>
@@ -9082,24 +9077,24 @@
       <c r="U141" s="34"/>
       <c r="V141" s="35"/>
       <c r="W141" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="142" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A142" s="31">
         <v>185</v>
       </c>
       <c r="B142" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C142" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D142" s="31" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="E142" s="32" t="s">
-        <v>361</v>
+        <v>301</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="33"/>
@@ -9119,24 +9114,24 @@
       <c r="U142" s="34"/>
       <c r="V142" s="35"/>
       <c r="W142" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="143" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A143" s="31">
         <v>186</v>
       </c>
       <c r="B143" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="E143" s="32" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="33"/>
@@ -9156,24 +9151,24 @@
       <c r="U143" s="34"/>
       <c r="V143" s="35"/>
       <c r="W143" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="144" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A144" s="31">
         <v>187</v>
       </c>
       <c r="B144" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C144" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D144" s="31" t="s">
-        <v>220</v>
+        <v>304</v>
       </c>
       <c r="E144" s="32" t="s">
-        <v>363</v>
+        <v>305</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="33"/>
@@ -9193,24 +9188,24 @@
       <c r="U144" s="34"/>
       <c r="V144" s="35"/>
       <c r="W144" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="145" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="145" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A145" s="31">
         <v>188</v>
       </c>
       <c r="B145" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C145" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D145" s="31" t="s">
-        <v>221</v>
+        <v>306</v>
       </c>
       <c r="E145" s="32" t="s">
-        <v>364</v>
+        <v>307</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
@@ -9230,24 +9225,24 @@
       <c r="U145" s="34"/>
       <c r="V145" s="35"/>
       <c r="W145" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="146" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="146" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A146" s="31">
         <v>189</v>
       </c>
       <c r="B146" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C146" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D146" s="31" t="s">
-        <v>222</v>
+        <v>308</v>
       </c>
       <c r="E146" s="32" t="s">
-        <v>365</v>
+        <v>309</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="33"/>
@@ -9267,24 +9262,24 @@
       <c r="U146" s="34"/>
       <c r="V146" s="35"/>
       <c r="W146" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="147" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="147" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A147" s="31">
         <v>190</v>
       </c>
       <c r="B147" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C147" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D147" s="31" t="s">
-        <v>223</v>
+        <v>310</v>
       </c>
       <c r="E147" s="32" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="33"/>
@@ -9304,24 +9299,24 @@
       <c r="U147" s="34"/>
       <c r="V147" s="35"/>
       <c r="W147" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="148" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="148" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A148" s="31">
         <v>191</v>
       </c>
       <c r="B148" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C148" s="37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D148" s="31" t="s">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="E148" s="32" t="s">
-        <v>367</v>
+        <v>313</v>
       </c>
       <c r="F148" s="33"/>
       <c r="G148" s="33"/>
@@ -9341,24 +9336,24 @@
       <c r="U148" s="34"/>
       <c r="V148" s="35"/>
       <c r="W148" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="149" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A149" s="31">
         <v>376</v>
       </c>
       <c r="B149" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D149" s="31" t="s">
-        <v>225</v>
+        <v>314</v>
       </c>
       <c r="E149" s="32" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="F149" s="33"/>
       <c r="G149" s="33"/>
@@ -9378,39 +9373,39 @@
       <c r="U149" s="34"/>
       <c r="V149" s="35"/>
       <c r="W149" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="150" spans="1:23" ht="11.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A150" s="45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:23" ht="13.85" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A150" s="44">
         <v>417</v>
       </c>
       <c r="B150" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D150" s="31" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="E150" s="32" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="F150" s="33">
-        <v>45733</v>
+        <v>45744</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="H150" s="33" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="I150" s="39" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="J150" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K150" s="29"/>
       <c r="L150" s="29"/>
@@ -9425,39 +9420,39 @@
       <c r="U150" s="34"/>
       <c r="V150" s="35"/>
       <c r="W150" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="151" spans="1:23" ht="11.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A151" s="45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="151" spans="1:23" ht="12.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="44">
         <v>418</v>
       </c>
       <c r="B151" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D151" s="31" t="s">
-        <v>258</v>
+        <v>319</v>
       </c>
       <c r="E151" s="32" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="F151" s="33">
-        <v>45734</v>
+        <v>45744</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="H151" s="33" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="I151" s="39" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="J151" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K151" s="29"/>
       <c r="L151" s="29"/>
@@ -9472,39 +9467,39 @@
       <c r="U151" s="34"/>
       <c r="V151" s="35"/>
       <c r="W151" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="152" spans="1:23" ht="11.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A152" s="45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="152" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="44">
         <v>419</v>
       </c>
       <c r="B152" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D152" s="31" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="E152" s="32" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="F152" s="33">
-        <v>45734</v>
+        <v>45744</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>443</v>
+        <v>468</v>
       </c>
       <c r="H152" s="33" t="s">
-        <v>444</v>
+        <v>469</v>
       </c>
       <c r="I152" s="39" t="s">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="J152" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K152" s="29"/>
       <c r="L152" s="29"/>
@@ -9519,41 +9514,41 @@
       <c r="U152" s="34"/>
       <c r="V152" s="35"/>
       <c r="W152" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="153" spans="1:23" ht="11.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A153" s="45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="153" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A153" s="44">
         <v>423</v>
       </c>
       <c r="B153" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D153" s="31" t="s">
-        <v>260</v>
+        <v>323</v>
       </c>
       <c r="E153" s="32" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="33"/>
       <c r="H153" s="33"/>
       <c r="I153" s="39"/>
       <c r="J153" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="K153" s="29" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="L153" s="29"/>
       <c r="M153" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="N153" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="O153" s="29"/>
       <c r="P153" s="29"/>
@@ -9564,41 +9559,41 @@
       <c r="U153" s="34"/>
       <c r="V153" s="35"/>
       <c r="W153" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="154" spans="1:23" ht="11.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A154" s="45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="154" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A154" s="44">
         <v>424</v>
       </c>
       <c r="B154" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D154" s="31" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="E154" s="32" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="F154" s="33"/>
       <c r="G154" s="33"/>
       <c r="H154" s="33"/>
       <c r="I154" s="39"/>
       <c r="J154" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="K154" s="29" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="L154" s="29"/>
       <c r="M154" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="N154" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="O154" s="29"/>
       <c r="P154" s="29"/>
@@ -9609,24 +9604,24 @@
       <c r="U154" s="34"/>
       <c r="V154" s="35"/>
       <c r="W154" s="29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155" spans="1:23" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A155" s="45">
+      <c r="A155" s="44">
         <v>425</v>
       </c>
       <c r="B155" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D155" s="31" t="s">
-        <v>262</v>
+        <v>327</v>
       </c>
       <c r="E155" s="32" t="s">
-        <v>271</v>
+        <v>328</v>
       </c>
       <c r="F155" s="33">
         <v>45734</v>
@@ -9635,61 +9630,61 @@
       <c r="H155" s="33"/>
       <c r="I155" s="39"/>
       <c r="J155" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K155" s="29"/>
       <c r="L155" s="29"/>
       <c r="M155" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="N155" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="O155" s="29"/>
       <c r="P155" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="Q155" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="R155" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="S155" s="29" t="s">
-        <v>456</v>
+        <v>329</v>
       </c>
       <c r="T155" s="29"/>
       <c r="U155" s="34"/>
       <c r="V155" s="35"/>
       <c r="W155" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="156" spans="1:23" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A156" s="45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="156" spans="1:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="44">
         <v>432</v>
       </c>
       <c r="B156" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D156" s="31" t="s">
-        <v>263</v>
+        <v>330</v>
       </c>
       <c r="E156" s="32" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="33"/>
       <c r="H156" s="33"/>
       <c r="I156" s="39"/>
       <c r="J156" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="K156" s="29" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="L156" s="29"/>
       <c r="M156" s="29"/>
@@ -9703,95 +9698,95 @@
       <c r="U156" s="34"/>
       <c r="V156" s="35"/>
       <c r="W156" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="157" spans="1:23" ht="11.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A157" s="45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="157" spans="1:23" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A157" s="44">
         <v>433</v>
       </c>
       <c r="B157" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D157" s="31" t="s">
-        <v>264</v>
+        <v>332</v>
       </c>
       <c r="E157" s="32" t="s">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="F157" s="33">
         <v>45735</v>
       </c>
       <c r="G157" s="33" t="s">
-        <v>457</v>
+        <v>334</v>
       </c>
       <c r="H157" s="33" t="s">
-        <v>458</v>
+        <v>335</v>
       </c>
       <c r="I157" s="39" t="s">
-        <v>459</v>
+        <v>336</v>
       </c>
       <c r="J157" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K157" s="29"/>
       <c r="L157" s="29"/>
       <c r="M157" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="N157" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="O157" s="29" t="s">
-        <v>449</v>
+        <v>337</v>
       </c>
       <c r="P157" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="Q157" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="R157" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="S157" s="29" t="s">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="T157" s="29"/>
       <c r="U157" s="34"/>
       <c r="V157" s="35"/>
       <c r="W157" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="158" spans="1:23" ht="11.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A158" s="45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="158" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="44">
         <v>434</v>
       </c>
       <c r="B158" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="E158" s="32" t="s">
-        <v>281</v>
+        <v>340</v>
       </c>
       <c r="F158" s="33"/>
       <c r="G158" s="33"/>
       <c r="H158" s="33"/>
       <c r="I158" s="39"/>
       <c r="J158" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="K158" s="29" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="L158" s="29"/>
       <c r="M158" s="29"/>
@@ -9805,34 +9800,34 @@
       <c r="U158" s="34"/>
       <c r="V158" s="35"/>
       <c r="W158" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="159" spans="1:23" ht="11.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A159" s="45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="159" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A159" s="44">
         <v>435</v>
       </c>
       <c r="B159" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D159" s="31" t="s">
-        <v>266</v>
+        <v>341</v>
       </c>
       <c r="E159" s="32" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="33"/>
       <c r="H159" s="33"/>
       <c r="I159" s="39"/>
       <c r="J159" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="K159" s="29" t="s">
-        <v>244</v>
+        <v>343</v>
       </c>
       <c r="L159" s="29"/>
       <c r="M159" s="29"/>
@@ -9846,339 +9841,339 @@
       <c r="U159" s="34"/>
       <c r="V159" s="35"/>
       <c r="W159" s="29" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="160" spans="1:23" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A160" s="45">
+      <c r="A160" s="44">
         <v>437</v>
       </c>
       <c r="B160" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D160" s="31" t="s">
-        <v>267</v>
+        <v>344</v>
       </c>
       <c r="E160" s="32" t="s">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="F160" s="33">
         <v>45735</v>
       </c>
       <c r="G160" s="33" t="s">
-        <v>460</v>
+        <v>346</v>
       </c>
       <c r="H160" s="33" t="s">
-        <v>461</v>
+        <v>347</v>
       </c>
       <c r="I160" s="39" t="s">
-        <v>462</v>
+        <v>348</v>
       </c>
       <c r="J160" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K160" s="29"/>
       <c r="L160" s="29"/>
       <c r="M160" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="N160" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="O160" s="29" t="s">
-        <v>451</v>
+        <v>349</v>
       </c>
       <c r="P160" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="Q160" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="R160" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="S160" s="29" t="s">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="T160" s="29"/>
       <c r="U160" s="34"/>
       <c r="V160" s="35"/>
       <c r="W160" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="161" spans="1:23" ht="11.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A161" s="45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="161" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A161" s="44">
         <v>438</v>
       </c>
       <c r="B161" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D161" s="31" t="s">
-        <v>268</v>
+        <v>350</v>
       </c>
       <c r="E161" s="32" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="F161" s="33">
         <v>45735</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>463</v>
+        <v>352</v>
       </c>
       <c r="H161" s="33" t="s">
-        <v>464</v>
+        <v>353</v>
       </c>
       <c r="I161" s="39" t="s">
-        <v>465</v>
+        <v>354</v>
       </c>
       <c r="J161" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K161" s="29"/>
       <c r="L161" s="29"/>
       <c r="M161" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="N161" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="O161" s="29" t="s">
-        <v>452</v>
+        <v>355</v>
       </c>
       <c r="P161" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="Q161" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="R161" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="S161" s="29" t="s">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="T161" s="29"/>
       <c r="U161" s="34"/>
       <c r="V161" s="35"/>
       <c r="W161" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="162" spans="1:23" ht="13.3" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A162" s="45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="162" spans="1:23" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A162" s="44">
         <v>440</v>
       </c>
       <c r="B162" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D162" s="31" t="s">
-        <v>269</v>
+        <v>356</v>
       </c>
       <c r="E162" s="32" t="s">
-        <v>283</v>
+        <v>357</v>
       </c>
       <c r="F162" s="33">
         <v>45735</v>
       </c>
       <c r="G162" s="33" t="s">
-        <v>466</v>
+        <v>358</v>
       </c>
       <c r="H162" s="33" t="s">
-        <v>467</v>
+        <v>359</v>
       </c>
       <c r="I162" s="39" t="s">
-        <v>468</v>
+        <v>360</v>
       </c>
       <c r="J162" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K162" s="29"/>
       <c r="L162" s="29"/>
       <c r="M162" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="N162" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="O162" s="29" t="s">
-        <v>453</v>
+        <v>361</v>
       </c>
       <c r="P162" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="Q162" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="R162" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="S162" s="29" t="s">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="T162" s="29"/>
       <c r="U162" s="34"/>
       <c r="V162" s="35"/>
       <c r="W162" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="163" spans="1:23" ht="11.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A163" s="45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="163" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A163" s="44">
         <v>441</v>
       </c>
       <c r="B163" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D163" s="31" t="s">
-        <v>270</v>
+        <v>362</v>
       </c>
       <c r="E163" s="32" t="s">
-        <v>284</v>
+        <v>363</v>
       </c>
       <c r="F163" s="33">
         <v>45735</v>
       </c>
       <c r="G163" s="33" t="s">
-        <v>469</v>
+        <v>364</v>
       </c>
       <c r="H163" s="33" t="s">
-        <v>470</v>
+        <v>365</v>
       </c>
       <c r="I163" s="39" t="s">
-        <v>471</v>
+        <v>366</v>
       </c>
       <c r="J163" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K163" s="29"/>
       <c r="L163" s="29"/>
       <c r="M163" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="N163" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="O163" s="29" t="s">
-        <v>454</v>
+        <v>367</v>
       </c>
       <c r="P163" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="Q163" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="R163" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="S163" s="29" t="s">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="T163" s="29"/>
       <c r="U163" s="34"/>
       <c r="V163" s="35"/>
       <c r="W163" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="164" spans="1:23" ht="11.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A164" s="45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="164" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A164" s="44">
         <v>442</v>
       </c>
       <c r="B164" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C164" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D164" s="31" t="s">
-        <v>274</v>
+        <v>368</v>
       </c>
       <c r="E164" s="32" t="s">
-        <v>276</v>
+        <v>369</v>
       </c>
       <c r="F164" s="33">
         <v>45735</v>
       </c>
       <c r="G164" s="33" t="s">
-        <v>472</v>
+        <v>370</v>
       </c>
       <c r="H164" s="33" t="s">
-        <v>473</v>
+        <v>371</v>
       </c>
       <c r="I164" s="39" t="s">
-        <v>474</v>
+        <v>372</v>
       </c>
       <c r="J164" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K164" s="29"/>
       <c r="L164" s="29"/>
       <c r="M164" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="N164" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="O164" s="29" t="s">
-        <v>455</v>
+        <v>373</v>
       </c>
       <c r="P164" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="Q164" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="R164" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="S164" s="29" t="s">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="T164" s="29"/>
       <c r="U164" s="34"/>
       <c r="V164" s="35"/>
       <c r="W164" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="165" spans="1:23" ht="11.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A165" s="45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A165" s="44">
         <v>443</v>
       </c>
       <c r="B165" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D165" s="31" t="s">
-        <v>275</v>
+        <v>374</v>
       </c>
       <c r="E165" s="32" t="s">
-        <v>277</v>
+        <v>375</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="33"/>
       <c r="H165" s="33"/>
       <c r="I165" s="39"/>
       <c r="J165" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="K165" s="29" t="s">
-        <v>244</v>
+        <v>343</v>
       </c>
       <c r="L165" s="29"/>
       <c r="M165" s="29"/>
@@ -10192,24 +10187,24 @@
       <c r="U165" s="34"/>
       <c r="V165" s="35"/>
       <c r="W165" s="29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="166" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A166" s="31">
         <v>444</v>
       </c>
       <c r="B166" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D166" s="31" t="s">
-        <v>206</v>
+        <v>376</v>
       </c>
       <c r="E166" s="32" t="s">
-        <v>249</v>
+        <v>377</v>
       </c>
       <c r="F166" s="33"/>
       <c r="G166" s="33"/>
@@ -10229,24 +10224,24 @@
       <c r="U166" s="34"/>
       <c r="V166" s="35"/>
       <c r="W166" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="167" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A167" s="31">
         <v>445</v>
       </c>
       <c r="B167" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C167" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D167" s="31" t="s">
-        <v>207</v>
+        <v>378</v>
       </c>
       <c r="E167" s="32" t="s">
-        <v>250</v>
+        <v>379</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="33"/>
@@ -10266,24 +10261,24 @@
       <c r="U167" s="34"/>
       <c r="V167" s="35"/>
       <c r="W167" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="168" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A168" s="31">
         <v>446</v>
       </c>
       <c r="B168" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C168" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D168" s="31" t="s">
-        <v>39</v>
+        <v>380</v>
       </c>
       <c r="E168" s="32" t="s">
-        <v>285</v>
+        <v>381</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="33"/>
@@ -10303,24 +10298,24 @@
       <c r="U168" s="34"/>
       <c r="V168" s="35"/>
       <c r="W168" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="169" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A169" s="31">
         <v>447</v>
       </c>
       <c r="B169" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D169" s="31" t="s">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="E169" s="32" t="s">
-        <v>286</v>
+        <v>383</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="33"/>
@@ -10340,24 +10335,24 @@
       <c r="U169" s="34"/>
       <c r="V169" s="35"/>
       <c r="W169" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="170" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A170" s="31">
         <v>448</v>
       </c>
       <c r="B170" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D170" s="31" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="E170" s="32" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="33"/>
@@ -10377,24 +10372,24 @@
       <c r="U170" s="34"/>
       <c r="V170" s="35"/>
       <c r="W170" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="171" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A171" s="31">
         <v>449</v>
       </c>
       <c r="B171" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D171" s="31" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="E171" s="32" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="F171" s="33"/>
       <c r="G171" s="33"/>
@@ -10414,24 +10409,24 @@
       <c r="U171" s="34"/>
       <c r="V171" s="35"/>
       <c r="W171" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="172" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A172" s="31">
         <v>450</v>
       </c>
       <c r="B172" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C172" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D172" s="31" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="E172" s="32" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="F172" s="33"/>
       <c r="G172" s="33"/>
@@ -10451,24 +10446,24 @@
       <c r="U172" s="34"/>
       <c r="V172" s="35"/>
       <c r="W172" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="173" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A173" s="31">
         <v>451</v>
       </c>
       <c r="B173" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C173" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D173" s="31" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="E173" s="32" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="F173" s="33"/>
       <c r="G173" s="33"/>
@@ -10488,24 +10483,24 @@
       <c r="U173" s="34"/>
       <c r="V173" s="35"/>
       <c r="W173" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A174" s="31">
         <v>452</v>
       </c>
       <c r="B174" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D174" s="31" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="E174" s="32" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="33"/>
@@ -10525,7 +10520,7 @@
       <c r="U174" s="34"/>
       <c r="V174" s="35"/>
       <c r="W174" s="29" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="175" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10533,16 +10528,16 @@
         <v>454</v>
       </c>
       <c r="B175" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D175" s="31" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E175" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="33"/>
@@ -10562,7 +10557,7 @@
       <c r="U175" s="34"/>
       <c r="V175" s="35"/>
       <c r="W175" s="29" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="176" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10570,16 +10565,16 @@
         <v>455</v>
       </c>
       <c r="B176" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C176" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D176" s="31" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E176" s="32" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F176" s="33"/>
       <c r="G176" s="33"/>
@@ -10599,7 +10594,7 @@
       <c r="U176" s="34"/>
       <c r="V176" s="35"/>
       <c r="W176" s="29" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="177" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10607,16 +10602,16 @@
         <v>456</v>
       </c>
       <c r="B177" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D177" s="31" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E177" s="32" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="33"/>
@@ -10636,24 +10631,24 @@
       <c r="U177" s="34"/>
       <c r="V177" s="35"/>
       <c r="W177" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="178" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A178" s="31">
         <v>457</v>
       </c>
       <c r="B178" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C178" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D178" s="31" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="E178" s="32" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="F178" s="33"/>
       <c r="G178" s="33"/>
@@ -10673,24 +10668,24 @@
       <c r="U178" s="34"/>
       <c r="V178" s="35"/>
       <c r="W178" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="179" spans="1:23" ht="11.05" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" ht="11.15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A179" s="31">
         <v>458</v>
       </c>
       <c r="B179" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C179" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D179" s="31" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="E179" s="32" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="F179" s="33"/>
       <c r="G179" s="33"/>
@@ -10710,7 +10705,7 @@
       <c r="U179" s="34"/>
       <c r="V179" s="35"/>
       <c r="W179" s="29" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="180" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10718,16 +10713,16 @@
         <v>459</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D180" s="31" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="E180" s="32" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="F180" s="33"/>
       <c r="G180" s="33"/>
@@ -10747,39 +10742,39 @@
       <c r="U180" s="34"/>
       <c r="V180" s="35"/>
       <c r="W180" s="29" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="181" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A181" s="45">
+      <c r="A181" s="44">
         <v>460</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C181" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D181" s="31" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="E181" s="32" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="F181" s="33">
-        <v>45734</v>
+        <v>45744</v>
       </c>
       <c r="G181" s="33" t="s">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="H181" s="33" t="s">
-        <v>447</v>
+        <v>472</v>
       </c>
       <c r="I181" s="39" t="s">
-        <v>448</v>
+        <v>473</v>
       </c>
       <c r="J181" s="29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K181" s="29"/>
       <c r="L181" s="29"/>
@@ -10794,7 +10789,7 @@
       <c r="U181" s="34"/>
       <c r="V181" s="35"/>
       <c r="W181" s="29" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="182" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10802,16 +10797,16 @@
         <v>461</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C182" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D182" s="31" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="E182" s="31" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="F182" s="31"/>
       <c r="G182" s="31"/>
@@ -10831,7 +10826,7 @@
       <c r="U182" s="31"/>
       <c r="V182" s="31"/>
       <c r="W182" s="31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="183" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10839,16 +10834,16 @@
         <v>462</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C183" s="37" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D183" s="31" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E183" s="29" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F183" s="31"/>
       <c r="G183" s="31"/>
@@ -10868,7 +10863,7 @@
       <c r="U183" s="31"/>
       <c r="V183" s="31"/>
       <c r="W183" s="31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="184" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10876,16 +10871,16 @@
         <v>463</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C184" s="37" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D184" s="31" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E184" s="29" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F184" s="31"/>
       <c r="G184" s="31"/>
@@ -10905,7 +10900,7 @@
       <c r="U184" s="31"/>
       <c r="V184" s="31"/>
       <c r="W184" s="31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="185" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10913,16 +10908,16 @@
         <v>464</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D185" s="31" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E185" s="32" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F185" s="31"/>
       <c r="G185" s="31"/>
@@ -10942,7 +10937,7 @@
       <c r="U185" s="31"/>
       <c r="V185" s="31"/>
       <c r="W185" s="31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="186" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10950,16 +10945,16 @@
         <v>465</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C186" s="37" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="D186" s="31" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E186" s="32" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F186" s="31"/>
       <c r="G186" s="31"/>
@@ -10979,7 +10974,7 @@
       <c r="U186" s="31"/>
       <c r="V186" s="31"/>
       <c r="W186" s="31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="187" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -10987,16 +10982,16 @@
         <v>466</v>
       </c>
       <c r="B187" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C187" s="37" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="D187" s="31" t="s">
-        <v>423</v>
-      </c>
-      <c r="E187" s="44" t="s">
-        <v>424</v>
+        <v>418</v>
+      </c>
+      <c r="E187" s="32" t="s">
+        <v>419</v>
       </c>
       <c r="F187" s="31"/>
       <c r="G187" s="31"/>
@@ -11016,7 +11011,7 @@
       <c r="U187" s="31"/>
       <c r="V187" s="31"/>
       <c r="W187" s="31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="188" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11024,16 +11019,16 @@
         <v>467</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C188" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D188" s="31" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="E188" s="29" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="F188" s="31"/>
       <c r="G188" s="31"/>
@@ -11053,7 +11048,7 @@
       <c r="U188" s="31"/>
       <c r="V188" s="31"/>
       <c r="W188" s="31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="189" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11061,16 +11056,16 @@
         <v>468</v>
       </c>
       <c r="B189" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C189" s="37" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D189" s="31" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E189" s="29" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F189" s="31"/>
       <c r="G189" s="31"/>
@@ -11090,7 +11085,7 @@
       <c r="U189" s="31"/>
       <c r="V189" s="31"/>
       <c r="W189" s="31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="190" spans="1:23" ht="14.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11098,16 +11093,16 @@
         <v>469</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C190" s="37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D190" s="31" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="E190" s="29" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="F190" s="31"/>
       <c r="G190" s="31"/>
@@ -11127,34 +11122,34 @@
       <c r="U190" s="31"/>
       <c r="V190" s="31"/>
       <c r="W190" s="31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="191" spans="1:23" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A191" s="45">
+      <c r="A191" s="44">
         <v>470</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C191" s="37" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="D191" s="31" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="E191" s="29" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F191" s="31"/>
       <c r="G191" s="31"/>
       <c r="H191" s="31"/>
       <c r="I191" s="31"/>
       <c r="J191" s="29" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
       <c r="K191" s="31" t="s">
-        <v>240</v>
+        <v>428</v>
       </c>
       <c r="L191" s="31"/>
       <c r="M191" s="31"/>
@@ -11168,7 +11163,7 @@
       <c r="U191" s="31"/>
       <c r="V191" s="31"/>
       <c r="W191" s="31" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="192" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -15304,7 +15299,7 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -15347,42 +15342,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>238</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -15399,175 +15394,175 @@
       <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16" style="16" customWidth="1"/>
     <col min="2" max="2" width="23.84375" customWidth="1"/>
     <col min="3" max="3" width="33.84375" customWidth="1"/>
     <col min="4" max="4" width="102" customWidth="1"/>
     <col min="5" max="5" width="8.84375" customWidth="1"/>
-    <col min="6" max="6" width="9.4609375" customWidth="1"/>
-    <col min="7" max="7" width="7.921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.3828125" customWidth="1"/>
+    <col min="7" max="7" width="7.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="30" t="s">
-        <v>278</v>
+        <v>434</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>226</v>
+        <v>435</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>227</v>
+        <v>436</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>247</v>
+        <v>437</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>370</v>
+        <v>442</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
       <c r="C4" s="12">
         <v>446.447</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>374</v>
+        <v>445</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>428</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>373</v>
+        <v>447</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>372</v>
+        <v>449</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>369</v>
+        <v>451</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>248</v>
+        <v>453</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A10" s="5" t="s">
-        <v>229</v>
+        <v>455</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>230</v>
+        <v>456</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>231</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>228</v>
+        <v>439</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -16536,7 +16531,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.3828125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="13.15234375" customWidth="1"/>
@@ -16545,26 +16540,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>232</v>
+        <v>460</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>233</v>
+        <v>461</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>234</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -17578,17 +17573,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1e0ec522-3181-4f7c-b363-2ace71f6fee9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="228e3216-9b37-47f7-9d85-6e6726edc181">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -17597,7 +17581,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009A6B8B41AB45FE4E8B23889C5F604192" ma:contentTypeVersion="11" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="c6632d705a2655bc4ef003303aa3e89d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="228e3216-9b37-47f7-9d85-6e6726edc181" xmlns:ns3="1e0ec522-3181-4f7c-b363-2ace71f6fee9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bc3f6e4344a62cf01cb5a4907fa5259c" ns2:_="" ns3:_="">
     <xsd:import namespace="228e3216-9b37-47f7-9d85-6e6726edc181"/>
@@ -17792,26 +17776,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="1e0ec522-3181-4f7c-b363-2ace71f6fee9"/>
-    <ds:schemaRef ds:uri="228e3216-9b37-47f7-9d85-6e6726edc181"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1e0ec522-3181-4f7c-b363-2ace71f6fee9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="228e3216-9b37-47f7-9d85-6e6726edc181">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -17819,7 +17795,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEDAFC9B-199E-4C7C-A64D-490A84C3B726}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17836,4 +17812,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1e0ec522-3181-4f7c-b363-2ace71f6fee9"/>
+    <ds:schemaRef ds:uri="228e3216-9b37-47f7-9d85-6e6726edc181"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>